--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H2">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I2">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J2">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N2">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q2">
-        <v>9688.897530520551</v>
+        <v>10336.77385349941</v>
       </c>
       <c r="R2">
-        <v>9688.897530520551</v>
+        <v>93030.9646814947</v>
       </c>
       <c r="S2">
-        <v>0.4490356892946425</v>
+        <v>0.4219380628539171</v>
       </c>
       <c r="T2">
-        <v>0.4490356892946425</v>
+        <v>0.4219380628539171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H3">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I3">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J3">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N3">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q3">
-        <v>203.2860955434369</v>
+        <v>220.0167635948404</v>
       </c>
       <c r="R3">
-        <v>203.2860955434369</v>
+        <v>1980.150872353563</v>
       </c>
       <c r="S3">
-        <v>0.009421372426410567</v>
+        <v>0.008980891750395344</v>
       </c>
       <c r="T3">
-        <v>0.009421372426410567</v>
+        <v>0.008980891750395344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H4">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I4">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J4">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N4">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q4">
-        <v>13.65581518978647</v>
+        <v>16.67849576152434</v>
       </c>
       <c r="R4">
-        <v>13.65581518978647</v>
+        <v>150.106461853719</v>
       </c>
       <c r="S4">
-        <v>0.0006328840167119166</v>
+        <v>0.0006808016014157492</v>
       </c>
       <c r="T4">
-        <v>0.0006328840167119166</v>
+        <v>0.0006808016014157492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H5">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I5">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J5">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N5">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q5">
-        <v>1257.060251372727</v>
+        <v>1560.41052258677</v>
       </c>
       <c r="R5">
-        <v>1257.060251372727</v>
+        <v>14043.69470328092</v>
       </c>
       <c r="S5">
-        <v>0.05825894170951378</v>
+        <v>0.06369459199634481</v>
       </c>
       <c r="T5">
-        <v>0.05825894170951378</v>
+        <v>0.06369459199634481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H6">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N6">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q6">
-        <v>4094.543176152703</v>
+        <v>4302.019010097995</v>
       </c>
       <c r="R6">
-        <v>4094.543176152703</v>
+        <v>38718.17109088197</v>
       </c>
       <c r="S6">
-        <v>0.1897631811729588</v>
+        <v>0.1756046512391254</v>
       </c>
       <c r="T6">
-        <v>0.1897631811729588</v>
+        <v>0.1756046512391254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H7">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N7">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q7">
-        <v>85.90902037018304</v>
+        <v>91.5678637203431</v>
       </c>
       <c r="R7">
-        <v>85.90902037018304</v>
+        <v>824.110773483088</v>
       </c>
       <c r="S7">
-        <v>0.003981486650781006</v>
+        <v>0.003737720064829822</v>
       </c>
       <c r="T7">
-        <v>0.003981486650781006</v>
+        <v>0.003737720064829823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H8">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I8">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J8">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N8">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q8">
-        <v>5.770968753050536</v>
+        <v>6.941353931393778</v>
       </c>
       <c r="R8">
-        <v>5.770968753050536</v>
+        <v>62.472185382544</v>
       </c>
       <c r="S8">
-        <v>0.0002674577704801742</v>
+        <v>0.0002833399930099263</v>
       </c>
       <c r="T8">
-        <v>0.0002674577704801742</v>
+        <v>0.0002833399930099263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H9">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I9">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J9">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N9">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q9">
-        <v>531.2356187127995</v>
+        <v>649.4207793326774</v>
       </c>
       <c r="R9">
-        <v>531.2356187127995</v>
+        <v>5844.787013994096</v>
       </c>
       <c r="S9">
-        <v>0.02462031944038442</v>
+        <v>0.0265087878957462</v>
       </c>
       <c r="T9">
-        <v>0.02462031944038442</v>
+        <v>0.02650878789574621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H10">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N10">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q10">
-        <v>2161.911054402594</v>
+        <v>2561.232234612919</v>
       </c>
       <c r="R10">
-        <v>2161.911054402594</v>
+        <v>23051.09011151627</v>
       </c>
       <c r="S10">
-        <v>0.1001946008252623</v>
+        <v>0.1045472584490886</v>
       </c>
       <c r="T10">
-        <v>0.1001946008252623</v>
+        <v>0.1045472584490886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H11">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I11">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J11">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N11">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q11">
-        <v>45.35980030517322</v>
+        <v>54.515464405129</v>
       </c>
       <c r="R11">
-        <v>45.35980030517322</v>
+        <v>490.639179646161</v>
       </c>
       <c r="S11">
-        <v>0.002102217422791392</v>
+        <v>0.002225273549821799</v>
       </c>
       <c r="T11">
-        <v>0.002102217422791392</v>
+        <v>0.002225273549821799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H12">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I12">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J12">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N12">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q12">
-        <v>3.04706058895558</v>
+        <v>4.132575750877001</v>
       </c>
       <c r="R12">
-        <v>3.04706058895558</v>
+        <v>37.193181757893</v>
       </c>
       <c r="S12">
-        <v>0.0001412171970623264</v>
+        <v>0.0001686881256797356</v>
       </c>
       <c r="T12">
-        <v>0.0001412171970623264</v>
+        <v>0.0001686881256797356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H13">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I13">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J13">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N13">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P13">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q13">
-        <v>280.4914021365227</v>
+        <v>386.6364676562431</v>
       </c>
       <c r="R13">
-        <v>280.4914021365227</v>
+        <v>3479.728208906188</v>
       </c>
       <c r="S13">
-        <v>0.01299948210855186</v>
+        <v>0.01578216225910061</v>
       </c>
       <c r="T13">
-        <v>0.01299948210855186</v>
+        <v>0.01578216225910061</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H14">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I14">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J14">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N14">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P14">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q14">
-        <v>2782.624205641413</v>
+        <v>3669.936150130341</v>
       </c>
       <c r="R14">
-        <v>2782.624205641413</v>
+        <v>33029.42535117307</v>
       </c>
       <c r="S14">
-        <v>0.1289617909872784</v>
+        <v>0.1498035820392195</v>
       </c>
       <c r="T14">
-        <v>0.1289617909872784</v>
+        <v>0.1498035820392195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H15">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I15">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J15">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N15">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P15">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q15">
-        <v>58.38319667925201</v>
+        <v>78.11406980506133</v>
       </c>
       <c r="R15">
-        <v>58.38319667925201</v>
+        <v>703.026628245552</v>
       </c>
       <c r="S15">
-        <v>0.002705791745811157</v>
+        <v>0.003188547970798954</v>
       </c>
       <c r="T15">
-        <v>0.002705791745811157</v>
+        <v>0.003188547970798954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H16">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I16">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J16">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N16">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P16">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q16">
-        <v>3.921911835187294</v>
+        <v>5.921481440197334</v>
       </c>
       <c r="R16">
-        <v>3.921911835187294</v>
+        <v>53.293332961776</v>
       </c>
       <c r="S16">
-        <v>0.0001817625151590933</v>
+        <v>0.000241709690423037</v>
       </c>
       <c r="T16">
-        <v>0.0001817625151590933</v>
+        <v>0.000241709690423037</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H17">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I17">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J17">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N17">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P17">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q17">
-        <v>361.0241797274427</v>
+        <v>554.0033154489761</v>
       </c>
       <c r="R17">
-        <v>361.0241797274427</v>
+        <v>4986.029839040784</v>
       </c>
       <c r="S17">
-        <v>0.01673180471620029</v>
+        <v>0.02261393052108352</v>
       </c>
       <c r="T17">
-        <v>0.01673180471620029</v>
+        <v>0.02261393052108353</v>
       </c>
     </row>
   </sheetData>
